--- a/files/questions.xlsx
+++ b/files/questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc550e96591139bd/SM_RK Shared folder/Coding_Analysis/Galen/Galen Evals/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7CD9E61-195E-E349-A3CF-5359E43BFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{C7CD9E61-195E-E349-A3CF-5359E43BFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A1F3B2A-992E-C941-9F92-A659B32F9377}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -907,9 +907,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -947,7 +947,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1053,7 +1053,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1195,583 +1195,592 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="44" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="45" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="46" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="47" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="48" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="49" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="50" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="51" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="52" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="53" spans="2:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+    <row r="54" spans="2:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="55" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="56" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+    <row r="57" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="58" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="59" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="60" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="61" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="62" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+    <row r="63" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+    <row r="64" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="65" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="66" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="67" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>109</v>
       </c>
     </row>

--- a/files/questions.xlsx
+++ b/files/questions.xlsx
@@ -1,51 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc550e96591139bd/SM_RK Shared folder/Coding_Analysis/Galen/Galen Evals/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{C7CD9E61-195E-E349-A3CF-5359E43BFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A1F3B2A-992E-C941-9F92-A659B32F9377}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{C7CD9E61-195E-E349-A3CF-5359E43BFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{663D5B49-AEF1-034F-8B37-7E8DE2B2B311}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">questions!$A$1:$C$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
-  <si>
-    <t>category</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="85">
   <si>
     <t>Question</t>
   </si>
   <si>
-    <t>Good answers include</t>
-  </si>
-  <si>
-    <t>RK thoughts</t>
-  </si>
-  <si>
     <t>Research Strategy</t>
   </si>
   <si>
     <t>Which cell lines have high dependency for the target of interest for the gene POLR3E?</t>
   </si>
   <si>
-    <t>Explains where to look in the Depmap database, or other avenues, and how to search</t>
-  </si>
-  <si>
-    <t>Shouldn't include the database name, more about the question and then where it finds the answer</t>
-  </si>
-  <si>
     <t>Which indications are the dependent cell lines for the gene POLR3E enriched in? Are there lineages with high selectivity?</t>
   </si>
   <si>
@@ -67,9 +68,6 @@
     <t>Describe the variant profile of tissues where there is significant differential expression for the gene POLR3E. Include details on copy number variations, mutations, etc.</t>
   </si>
   <si>
-    <t>Should detail out the "etc" portion</t>
-  </si>
-  <si>
     <t>Are there specific regions of the protein of the gene POLR3E where mutations occur at a higher frequency?</t>
   </si>
   <si>
@@ -85,27 +83,12 @@
     <t>Identify any therapeutic areas or platforms in focus for the gene POLR3E.</t>
   </si>
   <si>
-    <t>Explain specific areas including CAR-T, TPD</t>
-  </si>
-  <si>
-    <t>Take out (like xxx) and should make that part of the evaluation of the answer</t>
-  </si>
-  <si>
     <t>List molecules in clinical trials for the gene POLR3E, detailing the pharmaceutical companies involved and the latest status of these trials.</t>
   </si>
   <si>
-    <t>Can determine where to search and what answers are most relevant</t>
-  </si>
-  <si>
-    <t>This is a data search question, so we should have an idea of what's a good answer</t>
-  </si>
-  <si>
     <t>Which indications have drugs already in the market for the gene POLR3E?</t>
   </si>
   <si>
-    <t>Also a search question</t>
-  </si>
-  <si>
     <t>Are there any first in class opportunities for the gene POLR3E?</t>
   </si>
   <si>
@@ -115,76 +98,39 @@
     <t>How do you determine which genes or proteins to target for a new therapeutic?</t>
   </si>
   <si>
-    <t>Criteria for target selection (disease relevance, druggability, etc.), data sources (literature, databases, bioinformatics).</t>
-  </si>
-  <si>
     <t>What methods can be used to validate a potential biomarker for a specific disease?</t>
   </si>
   <si>
-    <t>Experimental approaches (ELISA, mass spectrometry), statistical validation (sensitivity, specificity, predictive value).</t>
-  </si>
-  <si>
     <t>Explain how pathway analysis can be integrated into drug discovery.</t>
   </si>
   <si>
-    <t>Bioinformatics tools for pathway analysis, interpretation of pathway perturbations due to drug interactions.</t>
-  </si>
-  <si>
     <t>How does phenotypic screening complement genotypic screening in drug discovery?</t>
   </si>
   <si>
-    <t>Differences in methodologies, advantages of each approach in discovering drug candidates.</t>
-  </si>
-  <si>
     <t>What are the main challenges in translating in vitro findings to in vivo models?</t>
   </si>
   <si>
-    <t>Issues like bioavailability, pharmacokinetics, pharmacodynamics, strategies to overcome these challenges.</t>
-  </si>
-  <si>
     <t>Discuss how structural biology can aid in the design of a new drug.</t>
   </si>
   <si>
-    <t>Role of structural biology in understanding target-drug interactions, techniques like X-ray crystallography, NMR.</t>
-  </si>
-  <si>
     <t>Gene Overview</t>
   </si>
   <si>
     <t xml:space="preserve">Provide a summary of the gene POLR3E, including its functions, mechanisms, and classifications. </t>
   </si>
   <si>
-    <t>Links to curated online databases such as GeneCards or NCBI and information on how to extract the data</t>
-  </si>
-  <si>
-    <t>Break down the questions into individual bits - against functions, mechanisms, classifications. 
-Remove mention of the databases, we want to see which ones the LLM pulls up</t>
-  </si>
-  <si>
     <t>Summarize the direct or indirect role of the gene POLR3E in cancer, detailing its mechanisms and interactions with other genes.</t>
   </si>
   <si>
     <t>Determine if the gene POLR3E is an oncogene</t>
   </si>
   <si>
-    <t>If the answer explains how to check if the gene is an oncogene in established human disease databases</t>
-  </si>
-  <si>
-    <t>Take out part about "established human disease databases" let's see what the response is. Then maybe add a separate question about how you might confirm this response.</t>
-  </si>
-  <si>
     <t>Identify the cancer indications or types that the gene POLR3E has been associated with.</t>
   </si>
   <si>
     <t>Provide relevant networks from any relevant database for the known mechanism and interactions of the gene POLR3E.</t>
   </si>
   <si>
-    <t>Explains it within StringDB and explains how the information can be retrieved</t>
-  </si>
-  <si>
-    <t>We should take out DB name probably and ask it to name the database and find mechanism and interactions</t>
-  </si>
-  <si>
     <t>List key publications related to the gene POLR3E, providing links where available.</t>
   </si>
   <si>
@@ -197,169 +143,155 @@
     <t>Propose a strategy to use CRISPR-Cas9 for editing a gene implicated in Alzheimer's disease</t>
   </si>
   <si>
-    <t xml:space="preserve">Genes such as APP or PSEN1 in a human neuronal cell line. Outline the design of guide RNAs for precise gene editing, and the strategy to screen for successful gene edits. Discuss the potential off-target effects and how to assess the specificity of the CRISPR system </t>
-  </si>
-  <si>
     <t>Develop a series of siRNA sequences to target and knock down a specific oncogene</t>
   </si>
   <si>
-    <t>e.g., KRAS. The siRNA should be designed for high specificity and efficiency. How would you ensure minimal off-target effects and maximal knockdown efficacy? Additionally, discuss the approach for validating the knockdown efficiency using qRT-PCR and Western blot techniques.</t>
-  </si>
-  <si>
     <t>Design a high-throughput screening (HTS) assay to identify small molecule inhibitors of a novel protein target believed to be involved in cancer cell proliferation</t>
   </si>
   <si>
-    <t>Explain how you would validate the target protein's role in cancer, select a suitable assay format (e.g., cell-based, biochemical), and discuss the criteria for hit selection and validation in this assay.</t>
-  </si>
-  <si>
     <t>Propose a strategy for developing an antibody-drug conjugate targeting a specific antigen overexpressed in a type of breast cancer</t>
   </si>
   <si>
-    <t>Detail the selection process for the antibody, the choice of cytotoxic drug, and the linker technology. Also, discuss how you would evaluate the specificity, efficacy, and safety of the ADC in preclinical models.</t>
-  </si>
-  <si>
     <t>Outline a pharmacokinetic study design for a new oral antidiabetic drug</t>
   </si>
   <si>
-    <t>Describe the considerations for dose selection, the route of administration, and the parameters to be measured (e.g., absorption, distribution, metabolism, excretion). Also, discuss how the pharmacokinetic data would be used to inform dosing regimens and subsequent clinical trials.</t>
-  </si>
-  <si>
     <t>Describe the process of building a chemogenomics model to predict drug-target interactions.</t>
   </si>
   <si>
-    <t>Data integration (chemical structures, genomic data), modeling techniques (machine learning, docking studies).</t>
-  </si>
-  <si>
     <t>How can computational models predict off-target effects of potential drug candidates?</t>
   </si>
   <si>
-    <t>Use of databases and algorithms to predict drug-target interactions, assessment of side effect profiles.</t>
-  </si>
-  <si>
     <t>What considerations are taken into account when selecting a delivery method for a new drug?</t>
   </si>
   <si>
-    <t>Drug properties (solubility, stability), target site characteristics, potential for controlled release.</t>
-  </si>
-  <si>
     <t>Describe a strategy to screen for synergistic effects between drug candidates.</t>
   </si>
   <si>
-    <t>Experimental design for combination screens, analysis of data to identify synergy (e.g., Loewe additivity, Bliss independence).</t>
-  </si>
-  <si>
     <t>Compbio process detail</t>
   </si>
   <si>
     <t>Which mutations in PAS domain for the target protein exhibit high selectivity for the prostate cancer cell lines?</t>
   </si>
   <si>
-    <t xml:space="preserve">Mutation data. Get protein sequence data from protein data bank and identify amino acids in the PAS domain.
-Identify prostate cancer cell lines with mutations in the PAS domain. Report ones that have high selectivity in prostate cancer.
-</t>
-  </si>
-  <si>
     <t>Which BRCA gene structural variants in the ordered region affect its interaction with the paralogs?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Variant profile with gene networks. Get BRCA gene ordered region sequence information from protein data bank.
-Get normal gene interaction network for BRCA from StringDB.
-Identify reported structural variants in BRCA gene paralogs in cell lines (depmap) and patients (tcga).
-Build geneset networks and compare with normal (code in python or cystoscape). Report variants with significant differences.
-</t>
-  </si>
-  <si>
     <t>Which tissues in patients have gene set enrichment profile similar to experiment in NCBI GEO ID GSE249645?</t>
-  </si>
-  <si>
-    <t>Names of tissues. Get data for the experiment from NCBI GEO database and perform differential expression analysis and gene set enrichment.
-Perform gene set enrichment for tumor vs normal tissues in the patients.
-Report concordance between the results for tissues.</t>
   </si>
   <si>
     <t xml:space="preserve">Which protein domains of the target are enriched for pathogenic mutations in the breast cancer patients?
 </t>
   </si>
   <si>
-    <t>Protein domain information for the frequency of mutations</t>
-  </si>
-  <si>
-    <t>Combination of SMARCA2 and SMARCA4: summary of genes, gene ontology, biological function, mechanism, role in disease.</t>
-  </si>
-  <si>
-    <t>Disease mechanism for combination of SMARCA2 and SMARCA4.</t>
-  </si>
-  <si>
-    <t>Interaction networks for SMARCA2 and SMARCA4 in stringdb.</t>
-  </si>
-  <si>
-    <t>Relationship between dependency scores of SMARCA2 and SMARCA4 in DepMapDB.</t>
-  </si>
-  <si>
-    <t>Relationship between SMARCA2 mutation status and SMARCA2 dependency; relationship between SMARCA4 mutation status and SMARCA4 dependency.</t>
-  </si>
-  <si>
-    <t>Relationship between SMARCA2 copy number status and SMARCA2 dependency; relationship between SMARCA4 copy number status and SMARCA4 dependency.</t>
-  </si>
-  <si>
-    <t>Relationship between SMARCA2 mutation status and SMARCA4 dependency and vice versa.</t>
-  </si>
-  <si>
-    <t>Relationship between SMARCA2 copy number status and SMARCA4 dependency and vice versa.</t>
-  </si>
-  <si>
-    <t>Expression comparison between tumor vs normal tissue for SMARCA2 and SMARCA4 in patients.</t>
-  </si>
-  <si>
-    <t>Relationship between expression of copy number of SMARCA2 and SMARCA4.</t>
-  </si>
-  <si>
-    <t>Relationship between expression and mutation status of SMARCA2 and SMARCA4.</t>
-  </si>
-  <si>
-    <t>Relationship between expression status of SMARCA2 and mutation status of SMARCA4 and vice versa.</t>
-  </si>
-  <si>
-    <t>Relationship between expression status of SMARCA2 and copy number status of SMARCA4 and vice versa.</t>
-  </si>
-  <si>
-    <t>Domain-wise frequency of pathogenic mutations for SMARCA2 and SMARCA4 from UniProt.</t>
-  </si>
-  <si>
-    <t>Summary of JAK1, gene ontology, biological function, mechanism, role in disease.</t>
-  </si>
-  <si>
-    <t>Disease mechanism for JAK1.</t>
-  </si>
-  <si>
-    <t>Interaction networks for JAK1 in stringdb.</t>
-  </si>
-  <si>
     <t>Relationship between dependency scores of JAK1 in DepMapDB.</t>
   </si>
   <si>
     <t>Relationship between JAK1 mutation status and JAK1 dependency.</t>
   </si>
   <si>
-    <t>Relationship between JAK1 copy number status and JAK1 dependency.</t>
-  </si>
-  <si>
-    <t>Expression comparison between tumor vs normal tissue for JAK1 in patients.</t>
-  </si>
-  <si>
-    <t>Relationship between expression of copy number of JAK1.</t>
-  </si>
-  <si>
     <t>Relationship between expression and mutation status of JAK1.</t>
   </si>
   <si>
-    <t>Relationship between expression status of JAK1 and mutation status of JAK1.</t>
-  </si>
-  <si>
-    <t>Relationship between expression status of JAK1 and copy number status of JAK1.</t>
-  </si>
-  <si>
-    <t>Domain-wise frequency of pathogenic mutations for JAK1 from UniProt.</t>
+    <t>RAG</t>
+  </si>
+  <si>
+    <t>Describe features of patient population in the paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional characterization of SMARCA4 variants identified by targeted exome sequencing of 131,668 cancer patients </t>
+  </si>
+  <si>
+    <t>What is the role of SMARCA2 and SMARCA4 in cancer?</t>
+  </si>
+  <si>
+    <t>What is the effect of SMARCA4 mutations on overall survival of NSCLC patients?</t>
+  </si>
+  <si>
+    <t>Which mutations are found in the Helicase domain of SMARCA4?</t>
+  </si>
+  <si>
+    <t>Which SMARCA4 mutations rescue depletion or knockdown of SMARCA2?</t>
+  </si>
+  <si>
+    <t>List all known pseudokinases</t>
+  </si>
+  <si>
+    <t>Emerging roles of pseudokinases</t>
+  </si>
+  <si>
+    <t>Which Receptor Protein Kinases have been classified as pseudokinases?</t>
+  </si>
+  <si>
+    <t>How many kinases and pseudokinases are encoded in human genome?</t>
+  </si>
+  <si>
+    <t>Which proteins have both kinase and pseudokinase domains?</t>
+  </si>
+  <si>
+    <t>What is the difference between pseudokinases and kinases?</t>
+  </si>
+  <si>
+    <t>What is Project Achilles?</t>
+  </si>
+  <si>
+    <t>Synthetic lethality as an engine for cancer drug target discovery</t>
+  </si>
+  <si>
+    <t>Which gene is synthetic lethal partner of ARID1A?</t>
+  </si>
+  <si>
+    <t>Deletion of which gene leads to synthetic lethal inhibition of PRMT5?</t>
+  </si>
+  <si>
+    <t>Which drugs target BRAF mutations?</t>
+  </si>
+  <si>
+    <t>Which genes are targeted by Imatinib?</t>
+  </si>
+  <si>
+    <t>Which compounds are selectively lethal to MSH2 deficient cells?</t>
+  </si>
+  <si>
+    <t>Searching for synthetic lethality in cancer</t>
+  </si>
+  <si>
+    <t>KRAS oncogene is mutated in which cancers?</t>
+  </si>
+  <si>
+    <t>Which drugs target ERBB2 in breast cancer?</t>
+  </si>
+  <si>
+    <t>Which model organisms was synthetic lethality first observed in?</t>
+  </si>
+  <si>
+    <t>Names of tumor suppressor proteins</t>
+  </si>
+  <si>
+    <t>Potential of the Synthetic Lethality Principle</t>
+  </si>
+  <si>
+    <t>Synthetic lethality mechanims for BRAF gene can be harnessed in combination with which gene?</t>
+  </si>
+  <si>
+    <t>PARP gene expression shows synthetic lethal relationship with mutations in which genes?</t>
+  </si>
+  <si>
+    <t>Synthetic lethality was discovered in which model organism?</t>
+  </si>
+  <si>
+    <t>Define synthetic lethality</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -906,10 +838,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -947,7 +883,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1053,7 +989,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1195,7 +1131,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1203,588 +1139,1030 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="57.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>IF(B3=B2,1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" ref="D4:D67" si="0">IF(B4=B3,1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>82</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="187" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>109</v>
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f t="shared" ref="D68" si="1">IF(B68=B67,1,"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C89">
+      <sortCondition ref="C1:C89"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/files/questions.xlsx
+++ b/files/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc550e96591139bd/SM_RK Shared folder/Coding_Analysis/Galen/Galen Evals/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{C7CD9E61-195E-E349-A3CF-5359E43BFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{663D5B49-AEF1-034F-8B37-7E8DE2B2B311}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{C7CD9E61-195E-E349-A3CF-5359E43BFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89ADD39A-0D44-2240-BBC4-4962C33782AF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="18000" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1165,38 +1165,38 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>IF(B3=B2,1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>83</v>
@@ -1206,24 +1206,30 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>83</v>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>83</v>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1231,11 +1237,14 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1247,52 +1256,52 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>83</v>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>82</v>
@@ -1302,12 +1311,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>82</v>
@@ -1317,12 +1326,12 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>82</v>
@@ -1337,7 +1346,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>82</v>
@@ -1347,117 +1356,117 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>82</v>
@@ -1469,10 +1478,10 @@
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>82</v>
@@ -1482,15 +1491,15 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>82</v>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1499,10 +1508,10 @@
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>82</v>
@@ -1514,10 +1523,10 @@
     </row>
     <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>82</v>
@@ -1529,71 +1538,71 @@
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C31" s="1" t="s">
         <v>82</v>
       </c>
@@ -1602,15 +1611,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>82</v>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1622,7 +1631,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>82</v>
@@ -1632,15 +1641,15 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>82</v>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
       </c>
       <c r="D34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1649,10 +1658,10 @@
     </row>
     <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>82</v>
@@ -1662,12 +1671,12 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>82</v>
@@ -1679,148 +1688,139 @@
     </row>
     <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" t="s">
-        <v>51</v>
+      <c r="C46" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1829,10 +1829,10 @@
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
         <v>51</v>
@@ -1847,7 +1847,7 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
@@ -1874,10 +1874,10 @@
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
@@ -1887,45 +1887,45 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" t="s">
-        <v>51</v>
+    <row r="51" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D51" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" t="s">
-        <v>51</v>
+    <row r="52" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D52" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" t="s">
-        <v>51</v>
+    <row r="53" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D53" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1934,10 +1934,10 @@
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
         <v>51</v>
@@ -1952,7 +1952,7 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
         <v>51</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
         <v>51</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
         <v>51</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
         <v>51</v>
@@ -2007,30 +2007,30 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" t="s">
-        <v>51</v>
+    <row r="59" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D59" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" t="s">
-        <v>51</v>
+    <row r="60" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D60" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2042,7 +2042,7 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
         <v>51</v>
@@ -2054,10 +2054,10 @@
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
         <v>51</v>
@@ -2067,30 +2067,30 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" t="s">
-        <v>51</v>
+    <row r="63" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D63" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" t="s">
-        <v>51</v>
+    <row r="64" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D64" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2099,10 +2099,10 @@
     </row>
     <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
         <v>51</v>
@@ -2117,7 +2117,7 @@
         <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
         <v>51</v>
@@ -2129,10 +2129,10 @@
     </row>
     <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
         <v>51</v>
@@ -2142,15 +2142,15 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" t="s">
-        <v>51</v>
+    <row r="68" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D68" s="1" t="str">
         <f t="shared" ref="D68" si="1">IF(B68=B67,1,"")</f>
@@ -2159,8 +2159,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C89">
-      <sortCondition ref="C1:C89"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C68">
+      <sortCondition ref="B1:B68"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/files/questions.xlsx
+++ b/files/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc550e96591139bd/SM_RK Shared folder/Coding_Analysis/Galen/Galen Evals/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{C7CD9E61-195E-E349-A3CF-5359E43BFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89ADD39A-0D44-2240-BBC4-4962C33782AF}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{C7CD9E61-195E-E349-A3CF-5359E43BFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38F441FE-8615-C64F-824F-80466DAC2EFF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="18000" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="185">
   <si>
     <t>Question</t>
   </si>
@@ -292,13 +292,313 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>RenG</t>
+  </si>
+  <si>
+    <t>What are the synonyms of synthetic lethality in literature?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which Receptor Protein Kinases have been classified as pseudokinases? </t>
+  </si>
+  <si>
+    <t>What is an example of a meditation state in EEG?</t>
+  </si>
+  <si>
+    <t>What happens to the brain during sleep?</t>
+  </si>
+  <si>
+    <t>How does stress impact the body? How does it impact sleep?</t>
+  </si>
+  <si>
+    <t>List all the EEG changes that can be induced by meditation?</t>
+  </si>
+  <si>
+    <t>What is the most reported change in the brain by meditation?</t>
+  </si>
+  <si>
+    <t>What was sleep fragmentation chosen?</t>
+  </si>
+  <si>
+    <t>What is the impact of sleep fragmentation on brain physiology?</t>
+  </si>
+  <si>
+    <t>What is the impact of sleep fragmentation on neuroinflammation?</t>
+  </si>
+  <si>
+    <t>How much sleep was reduced using the sleep fragmentation protocol?</t>
+  </si>
+  <si>
+    <t>How did age impact the severity of the sleep fragmentation?</t>
+  </si>
+  <si>
+    <t>How is the EEG different between species?</t>
+  </si>
+  <si>
+    <t>When do spiny mice sleep?</t>
+  </si>
+  <si>
+    <t>What are the differences between in bout durations between the sexes of spiny mice?</t>
+  </si>
+  <si>
+    <t>How does group housing change the amount of sleep of the mice?</t>
+  </si>
+  <si>
+    <t>How does the Piezo system measure sleep?</t>
+  </si>
+  <si>
+    <t>Why should you do meditation as a classroom activity?</t>
+  </si>
+  <si>
+    <t>How does meditation impact performance?</t>
+  </si>
+  <si>
+    <t>How was performance measured?</t>
+  </si>
+  <si>
+    <t>What was the change in attention before and after meditation?</t>
+  </si>
+  <si>
+    <t>What was the difference in reaction time between control and meditation groups?</t>
+  </si>
+  <si>
+    <t>MoElshetehy</t>
+  </si>
+  <si>
+    <t>What are the key inducers of systemic acquired resistance (SAR) in plants, and how do they operate in terms of concentration-dependent effects?</t>
+  </si>
+  <si>
+    <t>What genetic evidence supports the role of nitric oxide (NO) in SAR, and how does NO's concentration affect SAR induction?</t>
+  </si>
+  <si>
+    <t>How does the absence of NO affect SAR signal generation and perception, and what is the relationship between NO and salicylic acid (SA) in SAR?</t>
+  </si>
+  <si>
+    <t>What role do reactive oxygen species (ROS) play in SAR induction, and how are they related to NO in terms of SAR efficacy?</t>
+  </si>
+  <si>
+    <t>How do NO and ROS function in parallel with salicylic acid (SA) signaling pathways to ensure optimal induction of systemic acquired resistance (SAR), and what mechanisms regulate excessive ROS production during SAR?</t>
+  </si>
+  <si>
+    <t>How do individual and combined abiotic stresses affect the susceptibility of Arabidopsis plants to infection by both biotrophic bacterial and necrotrophic fungal pathogens?</t>
+  </si>
+  <si>
+    <t>What specific changes in gene expression are associated with increased susceptibility to Pst infection under heat stress and combined osmotic-heat stress?</t>
+  </si>
+  <si>
+    <t>What is the impact of individual and combined abiotic stresses on the expression levels of defense-related genes, such as PR-1, PR-5, and TN-13, in response to Pst infection?</t>
+  </si>
+  <si>
+    <t>How does osmotic stress, heat stress, and their combination influence Arabidopsis plants' susceptibility to infection by the necrotrophic fungus Bc, and what are the observed changes in gene expression?</t>
+  </si>
+  <si>
+    <t>What is the effect of individual and combined abiotic stresses on the expression of cell wall-related genes in Arabidopsis, and how does this relate to disease resistance against both Pst and Bc pathogens?</t>
+  </si>
+  <si>
+    <t>What is systemic acquired resistance (SAR) in plants, and how do silica nanoparticles (SiO2 NPs) induce SAR?</t>
+  </si>
+  <si>
+    <t>What are the differences between the effects of SiO2 NPs and soluble Si(OH)4 on SAR induction and plant stress levels?</t>
+  </si>
+  <si>
+    <t>How do SiO2 NPs induce local and systemic resistance against virulent Pseudomonas syringae infection in Arabidopsis plants, and what is the role of salicylic acid (SA) in this process?</t>
+  </si>
+  <si>
+    <t>What is the dose-dependent relationship between SiO2 NP concentration and SAR induction, and how does it affect bacterial inhibition in Arabidopsis?</t>
+  </si>
+  <si>
+    <t>What are the mechanisms underlying the protective effect of SiO2 NPs on plants against bacterial pathogens, and how does it compare to the effect of dissolved Si(OH)4?</t>
+  </si>
+  <si>
+    <t>What is the causal agent of Goss's wilt, and why has it become a significant concern in corn crops in North America?</t>
+  </si>
+  <si>
+    <t>How do different strains of Clavibacter nebraskensis affect corn plants, and what are the key symptoms associated with Goss's wilt?</t>
+  </si>
+  <si>
+    <t>What are the roles of ethylene, reactive oxygen species (ROS), and salicylic acid (SA) in limiting the spread of Goss's wilt symptoms, and how do they contribute to plant defense mechanisms?</t>
+  </si>
+  <si>
+    <t>How does priming with a less aggressive strain of Clavibacter nebraskensis affect the defense responses of susceptible corn plants when subsequently exposed to a highly aggressive strain?</t>
+  </si>
+  <si>
+    <t>What are the molecular markers and key mediators involved in the defense responses of corn plants against Goss's wilt, particularly in relation to ethylene, ROS, and SA signaling pathways?</t>
+  </si>
+  <si>
+    <t>How do the symptoms induced by the highly aggressive strain of Clavibacter nebraskensis differ between susceptible (CO447) and tolerant (CO450) corn lines?</t>
+  </si>
+  <si>
+    <t>What are the key differences in gene expression related to plant defense mechanisms between the CO447 and CO450 corn lines when challenged with the highly aggressive bacterial strain CMN14-5-1?</t>
+  </si>
+  <si>
+    <t>How does the expression of genes associated with jasmonic acid (JA) and salicylic acid (SA) pathways differ between the susceptible and tolerant corn lines in response to CMN14-5-1 infection?</t>
+  </si>
+  <si>
+    <t>What are the roles of programmed cell death (PCD)-related genes in the defense responses of corn plants against Goss’s wilt caused by CMN14-5-1?</t>
+  </si>
+  <si>
+    <t>How do exogenous treatments with SA and H2O2 contribute to restoring partial disease resistance in susceptible CO447 plants against CMN14-5-1, and what are the implications of these findings for disease management strategies?</t>
+  </si>
+  <si>
+    <t>DanW</t>
+  </si>
+  <si>
+    <t>What biases might occur when using commensurate priors?</t>
+  </si>
+  <si>
+    <t>What are some advantages to using data from past trials when analyzing new data?</t>
+  </si>
+  <si>
+    <t>How many cases do you need to obtain credible estimates in a sequential Bayesian trial?</t>
+  </si>
+  <si>
+    <t>What are alternative prior structures that could be used instead of commensurate priors when evaluating historical data?</t>
+  </si>
+  <si>
+    <t>What happened to the dynamics of RSV following the COVID-19 pandemic in the Netherlands?</t>
+  </si>
+  <si>
+    <t>What caused the epidemiology of RSV to change during the post-COVID period?</t>
+  </si>
+  <si>
+    <t>How did the age distribution of RSv change following the COVID pandemic?</t>
+  </si>
+  <si>
+    <t>Did the severity of RSV change after COVID-19?</t>
+  </si>
+  <si>
+    <t>How did the change in RSV dynamics in the Netherlands compare to other countries around the world?</t>
+  </si>
+  <si>
+    <t>How do individual level and populaiton level estimates of excess deaths differ?</t>
+  </si>
+  <si>
+    <t>Which risk groups had the largest relative increase in death rates during the pandemic?</t>
+  </si>
+  <si>
+    <t>Which risk groups were most impacted by the pandemic?</t>
+  </si>
+  <si>
+    <t>What are some biases that could affect estimates of excess deaths at an individual level?</t>
+  </si>
+  <si>
+    <t>How does themagnitude of excess deaths among veterans compare with the general US population?</t>
+  </si>
+  <si>
+    <t>How can you predict vaccine effectiveness against diseases based on immunogenicity data?</t>
+  </si>
+  <si>
+    <t>How does the relationship between immunogenicity and effectiveness differ between populations?</t>
+  </si>
+  <si>
+    <t>How can you estimate vaccine effectiveness against nasal colonization from immunogenicity data?</t>
+  </si>
+  <si>
+    <t>Which serotypes require the highest level of antibody for protection against disease?</t>
+  </si>
+  <si>
+    <t>What are the challenges when using immunogenicity data to estimate vaccine effectiveness?</t>
+  </si>
+  <si>
+    <t>How much does RSv contribute to the burden of pneumonia?</t>
+  </si>
+  <si>
+    <t>Which risk groups are most impact by RSV?</t>
+  </si>
+  <si>
+    <t>What time of year is RSV most common in the United States?</t>
+  </si>
+  <si>
+    <t>What statistical methods can be used to estimate the burden of RSV and influenza?</t>
+  </si>
+  <si>
+    <t>What are confounding factors that can make it challenging to estimate the burden of pneuonia caused by viruses?</t>
+  </si>
+  <si>
+    <t>AdamMSK</t>
+  </si>
+  <si>
+    <t>What is the rate of acquired resistance to PD-(L)1 blockade among patients with non-small cell lung cancer?</t>
+  </si>
+  <si>
+    <t>What are the key difference in gene expression observed in relapsed tumors, particularly regarding the upregulation or stability of IFNγ response genes?</t>
+  </si>
+  <si>
+    <t>What are the main characteristics associated with the upregulation of IFNγ response genes?</t>
+  </si>
+  <si>
+    <t>What are the implications of mutations in antigen presentation genes in the context of acquired resistance to PD-(L)1 blockade?</t>
+  </si>
+  <si>
+    <t>How do murine models contribute to the understanding of acquired resistance to PD-(L)1 blockade, particularly after in vitro IFNγ treatment?</t>
+  </si>
+  <si>
+    <t>How did the classifiers developed in the study improve the ranking of neoantigens, and by what percentage?</t>
+  </si>
+  <si>
+    <t>What is the the significance of understanding the role of the mutated gene in oncogenicity when predicting neoantigen immunogenicity?</t>
+  </si>
+  <si>
+    <t>What does the term "binding promiscuity" refer to in the context of neoantigen immunogenicity?</t>
+  </si>
+  <si>
+    <t>How many cancer patients were included in the study, and what types of data were reprocessed from these patients for neoantigen immunogenicity screening?</t>
+  </si>
+  <si>
+    <t>What insights does the paper provide into machine learning methods for neoantigen ranking, and how can these insights be applied in the context of cancer immunotherapy?</t>
+  </si>
+  <si>
+    <t>What are mutational signatures, and how are they described in the context of tumor evolution?</t>
+  </si>
+  <si>
+    <t>What is the the significance of stop-gain mutations (SGMs) and how they are related to the mutational signatures of tobacco smoking, APOBEC cytidine deaminases, and reactive oxygen species?</t>
+  </si>
+  <si>
+    <t>Which cancer hallmark pathways and tumor suppressors are frequently affected by SGMs?</t>
+  </si>
+  <si>
+    <t>How do tobacco-driven SGMs in lung cancer correlate with smoking history?</t>
+  </si>
+  <si>
+    <t>What are the characteristics of APOBEC-driven SGMs, particularly their association with YTCA motifs and APOBEC3A expression?</t>
+  </si>
+  <si>
+    <t>What are the challenges in consistent interpretation and reporting of clinically relevant variants?</t>
+  </si>
+  <si>
+    <t>What is the difference between the MANE Select set and the MANE Plus Clinical set in terms of their role in variant reporting?</t>
+  </si>
+  <si>
+    <t>What is the criteria for a transcript to be included in the MANE Select set?</t>
+  </si>
+  <si>
+    <t>How much coverage has been achieved by the MANE Select transcripts in terms of human protein-coding genes?</t>
+  </si>
+  <si>
+    <t>How does the MANE Select set identify representative transcripts for each human protein-coding gene?</t>
+  </si>
+  <si>
+    <t>What is the primary function of cellular deconvolution algorithms?</t>
+  </si>
+  <si>
+    <t>How do deconvolution algorithms reconstruct tissue composition?</t>
+  </si>
+  <si>
+    <t>How does Kassandra correct for technical and biological variability?</t>
+  </si>
+  <si>
+    <t>What insights did Kassandra provide into the tumor microenvironment?</t>
+  </si>
+  <si>
+    <t>What types of data were used to validate Kassandra's performance?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -432,6 +732,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -775,11 +1081,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -838,14 +1146,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -883,7 +1187,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -989,7 +1293,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1131,7 +1435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1139,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1165,38 +1469,38 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>IF(B3=B2,1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>83</v>
@@ -1206,30 +1510,24 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1237,14 +1535,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1256,37 +1551,37 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>82</v>
@@ -1296,12 +1591,12 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>82</v>
@@ -1311,12 +1606,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>82</v>
@@ -1326,12 +1621,12 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>82</v>
@@ -1346,7 +1641,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>82</v>
@@ -1356,12 +1651,12 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>82</v>
@@ -1371,12 +1666,12 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>82</v>
@@ -1386,42 +1681,42 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>82</v>
@@ -1431,12 +1726,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>82</v>
@@ -1446,12 +1741,12 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>82</v>
@@ -1461,12 +1756,12 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>82</v>
@@ -1478,10 +1773,10 @@
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>82</v>
@@ -1491,15 +1786,15 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1508,10 +1803,10 @@
     </row>
     <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>82</v>
@@ -1523,10 +1818,10 @@
     </row>
     <row r="26" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>82</v>
@@ -1538,10 +1833,10 @@
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>82</v>
@@ -1551,42 +1846,42 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>51</v>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
+    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>82</v>
@@ -1596,12 +1891,12 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>82</v>
@@ -1611,15 +1906,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>51</v>
+    <row r="32" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1631,7 +1926,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>82</v>
@@ -1641,15 +1936,15 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1658,10 +1953,10 @@
     </row>
     <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>82</v>
@@ -1671,12 +1966,12 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>82</v>
@@ -1688,10 +1983,10 @@
     </row>
     <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>82</v>
@@ -1701,12 +1996,12 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>82</v>
@@ -1717,11 +2012,14 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1729,35 +2027,41 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>82</v>
@@ -1767,400 +2071,1613 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>76</v>
       </c>
-      <c r="B43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
       <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
         <v>68</v>
       </c>
-      <c r="C55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
       <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
         <v>74</v>
       </c>
-      <c r="C61" t="s">
-        <v>51</v>
-      </c>
-      <c r="D61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>53</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B65" t="s">
         <v>56</v>
       </c>
-      <c r="C62" t="s">
-        <v>51</v>
-      </c>
-      <c r="D62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" t="s">
-        <v>62</v>
-      </c>
       <c r="C65" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>59</v>
       </c>
       <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" t="s">
         <v>60</v>
       </c>
-      <c r="C66" t="s">
-        <v>51</v>
-      </c>
-      <c r="D66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>53</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>57</v>
       </c>
-      <c r="C67" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="1" t="str">
-        <f t="shared" ref="D68" si="1">IF(B68=B67,1,"")</f>
-        <v/>
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>85</v>
+      </c>
+      <c r="B101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>85</v>
+      </c>
+      <c r="B103" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>85</v>
+      </c>
+      <c r="B104" t="s">
+        <v>98</v>
+      </c>
+      <c r="C104" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>85</v>
+      </c>
+      <c r="B105" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>85</v>
+      </c>
+      <c r="B107" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108" t="s">
+        <v>102</v>
+      </c>
+      <c r="C108" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>85</v>
+      </c>
+      <c r="B109" t="s">
+        <v>103</v>
+      </c>
+      <c r="C109" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>85</v>
+      </c>
+      <c r="B110" t="s">
+        <v>104</v>
+      </c>
+      <c r="C110" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>85</v>
+      </c>
+      <c r="B111" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>85</v>
+      </c>
+      <c r="B113" t="s">
+        <v>107</v>
+      </c>
+      <c r="C113" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>108</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C114" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>108</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>108</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>108</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C118" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>108</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C119" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>108</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C120" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>108</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C121" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>108</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C123" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>108</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C124" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>108</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C125" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>108</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>108</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C128" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>108</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C129" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C130" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>108</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C131" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>108</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>108</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>108</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C134" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>108</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C135" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>108</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C136" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>108</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C137" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>108</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C138" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C139" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>134</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C140" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>134</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C141" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>134</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C142" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>134</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C143" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>134</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C144" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>134</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C145" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>134</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C146" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>134</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C147" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>134</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C148" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>134</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C149" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>134</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C150" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>134</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C151" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>134</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C152" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>134</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C153" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>134</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C154" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>134</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C155" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>134</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C156" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>134</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C157" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>134</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C158" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>134</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C159" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>134</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C160" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>134</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>134</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C162" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>159</v>
+      </c>
+      <c r="B163" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>159</v>
+      </c>
+      <c r="B164" t="s">
+        <v>161</v>
+      </c>
+      <c r="C164" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>159</v>
+      </c>
+      <c r="B165" t="s">
+        <v>162</v>
+      </c>
+      <c r="C165" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>159</v>
+      </c>
+      <c r="B166" t="s">
+        <v>163</v>
+      </c>
+      <c r="C166" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>159</v>
+      </c>
+      <c r="B167" t="s">
+        <v>164</v>
+      </c>
+      <c r="C167" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>159</v>
+      </c>
+      <c r="B168" t="s">
+        <v>165</v>
+      </c>
+      <c r="C168" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>159</v>
+      </c>
+      <c r="B169" t="s">
+        <v>166</v>
+      </c>
+      <c r="C169" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>159</v>
+      </c>
+      <c r="B170" t="s">
+        <v>167</v>
+      </c>
+      <c r="C170" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>159</v>
+      </c>
+      <c r="B171" t="s">
+        <v>168</v>
+      </c>
+      <c r="C171" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>159</v>
+      </c>
+      <c r="B172" t="s">
+        <v>169</v>
+      </c>
+      <c r="C172" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>159</v>
+      </c>
+      <c r="B173" t="s">
+        <v>170</v>
+      </c>
+      <c r="C173" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>159</v>
+      </c>
+      <c r="B174" t="s">
+        <v>171</v>
+      </c>
+      <c r="C174" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>159</v>
+      </c>
+      <c r="B175" t="s">
+        <v>172</v>
+      </c>
+      <c r="C175" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>159</v>
+      </c>
+      <c r="B176" t="s">
+        <v>173</v>
+      </c>
+      <c r="C176" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>159</v>
+      </c>
+      <c r="B177" t="s">
+        <v>174</v>
+      </c>
+      <c r="C177" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>159</v>
+      </c>
+      <c r="B178" t="s">
+        <v>175</v>
+      </c>
+      <c r="C178" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>159</v>
+      </c>
+      <c r="B179" t="s">
+        <v>176</v>
+      </c>
+      <c r="C179" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>159</v>
+      </c>
+      <c r="B180" t="s">
+        <v>177</v>
+      </c>
+      <c r="C180" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>159</v>
+      </c>
+      <c r="B181" t="s">
+        <v>178</v>
+      </c>
+      <c r="C181" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>159</v>
+      </c>
+      <c r="B182" t="s">
+        <v>179</v>
+      </c>
+      <c r="C182" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>159</v>
+      </c>
+      <c r="B183" t="s">
+        <v>180</v>
+      </c>
+      <c r="C183" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>159</v>
+      </c>
+      <c r="B184" t="s">
+        <v>181</v>
+      </c>
+      <c r="C184" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>159</v>
+      </c>
+      <c r="B185" t="s">
+        <v>182</v>
+      </c>
+      <c r="C185" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>159</v>
+      </c>
+      <c r="B186" t="s">
+        <v>183</v>
+      </c>
+      <c r="C186" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>159</v>
+      </c>
+      <c r="B187" t="s">
+        <v>184</v>
+      </c>
+      <c r="C187" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C68">
-      <sortCondition ref="B1:B68"/>
+      <sortCondition ref="C1:C68"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
